--- a/src/main/webapp/excels/day_balance_list.xlsx
+++ b/src/main/webapp/excels/day_balance_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyoonkang/workspace/fx-lounge/src/main/webapp/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B37766-3DDD-2B45-90B6-2F2CAA40A15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F75DFC-EEB1-614E-9A91-FC395B8D756A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="4980" windowWidth="20900" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동 총액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,19 +30,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.date }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${list.sumCash}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.balance}</t>
+    <t>${search.sYear}년 ${search.sMonth}월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${search.sYear}년 ${search.sMonth}월</t>
+    <t>${list.stDate }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,11 +143,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,26 +496,25 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="5" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
+      <c r="A2" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8"/>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4">
@@ -527,21 +524,17 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4"/>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:4">
@@ -576,7 +569,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
